--- a/ApolloQA/Data/RatingManual/GA/OR00005.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00005.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00005" sheetId="1" r:id="Rf245d15f315a4cf0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00005" sheetId="1" r:id="Rfd03b813f2714d1a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,79 +23,90 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trailer Interchange Exposure Base</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Limit</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00005.BaseRateFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00005.WrittenAgreementFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00005.CollisionType_OtherThanCollisionTypeFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>OR00005.CollisionDeductible_OtherThanCollisionDeductible_LimitFactors</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Driver Rating</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>DR</x:v>
+        <x:v>Maximum</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00012.MinimumRatingValueFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Maximum</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Stated Value</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Rating Stated Value</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00012.BaseRateFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00012.StatedValueFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00012.DeductibleFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00012.Deductible_StatedValueFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
       </x:c>
     </x:row>
     <x:row>
@@ -129,17 +140,6 @@
       </x:c>
       <x:c t="str">
         <x:v>SR.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Experience Rating</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>SR.4</x:v>
       </x:c>
     </x:row>
     <x:row>
